--- a/Testdata/Templates/SLRReport_SourceData/Expected_word_Data/Economic.xlsx
+++ b/Testdata/Templates/SLRReport_SourceData/Expected_word_Data/Economic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\SLRReport_SourceData\Expected_word_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6BAFCD-6D6F-4994-B8EF-E936C5F5B870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E777F-D1C0-4AA5-AB68-BC5E83E2F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{F41F5CD2-6A17-487E-B0F8-6E88D154AF8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F41F5CD2-6A17-487E-B0F8-6E88D154AF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2-2" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1229,9 +1229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCC782A-4FD7-42D2-9B4C-AB28630FA320}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,9 +1591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6FC63-DADD-4E32-B1D5-DF3688546067}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
